--- a/test1.xlsx
+++ b/test1.xlsx
@@ -367,13 +367,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:BN6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:66">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -419,105 +419,1155 @@
       <c r="P1" s="1">
         <v>14</v>
       </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>64</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:66">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.105</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.118</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.163</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.181</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.197</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.178</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.099</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.163</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.091</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.126</v>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
+        <v>1797</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:66">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5629999999999999</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.432</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.451</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.512</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.309</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.438</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.491</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.377</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.321</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.294</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.269</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.348</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.373</v>
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="4" spans="1:66">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="5" spans="1:66">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>0</v>
+      </c>
+      <c r="AZ6">
+        <v>0</v>
+      </c>
+      <c r="BA6">
+        <v>0</v>
+      </c>
+      <c r="BB6">
+        <v>0</v>
+      </c>
+      <c r="BC6">
+        <v>0</v>
+      </c>
+      <c r="BD6">
+        <v>0</v>
+      </c>
+      <c r="BE6">
+        <v>0</v>
+      </c>
+      <c r="BF6">
+        <v>0</v>
+      </c>
+      <c r="BG6">
+        <v>0</v>
+      </c>
+      <c r="BH6">
+        <v>0</v>
+      </c>
+      <c r="BI6">
+        <v>0</v>
+      </c>
+      <c r="BJ6">
+        <v>0</v>
+      </c>
+      <c r="BK6">
+        <v>0</v>
+      </c>
+      <c r="BL6">
+        <v>0</v>
+      </c>
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
+        <v>766</v>
       </c>
     </row>
   </sheetData>
@@ -527,47 +1577,992 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:BM5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:65">
       <c r="B1" s="1">
         <v>0</v>
       </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>63</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:65">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>4383.4</v>
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0.048</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.005</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0.001</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+      <c r="BC2">
+        <v>0</v>
+      </c>
+      <c r="BD2">
+        <v>0</v>
+      </c>
+      <c r="BE2">
+        <v>0</v>
+      </c>
+      <c r="BF2">
+        <v>0</v>
+      </c>
+      <c r="BG2">
+        <v>0</v>
+      </c>
+      <c r="BH2">
+        <v>0</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2">
+        <v>0.001</v>
+      </c>
+      <c r="BK2">
+        <v>0</v>
+      </c>
+      <c r="BL2">
+        <v>0</v>
+      </c>
+      <c r="BM2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:65">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4315.9</v>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0.001</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0.048</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0.032</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>0</v>
+      </c>
+      <c r="AZ3">
+        <v>0.003</v>
+      </c>
+      <c r="BA3">
+        <v>0</v>
+      </c>
+      <c r="BB3">
+        <v>0</v>
+      </c>
+      <c r="BC3">
+        <v>0</v>
+      </c>
+      <c r="BD3">
+        <v>0</v>
+      </c>
+      <c r="BE3">
+        <v>0</v>
+      </c>
+      <c r="BF3">
+        <v>0</v>
+      </c>
+      <c r="BG3">
+        <v>0</v>
+      </c>
+      <c r="BH3">
+        <v>0</v>
+      </c>
+      <c r="BI3">
+        <v>0</v>
+      </c>
+      <c r="BJ3">
+        <v>0</v>
+      </c>
+      <c r="BK3">
+        <v>0</v>
+      </c>
+      <c r="BL3">
+        <v>0</v>
+      </c>
+      <c r="BM3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:65">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4326.1</v>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0.003</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0.037</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0.001</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0.001</v>
+      </c>
+      <c r="AT4">
+        <v>0.002</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0.002</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0.001</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:65">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4319.7</v>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.037</v>
+      </c>
+      <c r="O5">
+        <v>0.018</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0.002</v>
+      </c>
+      <c r="AB5">
+        <v>0.005</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.003</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0.042</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <v>0</v>
+      </c>
+      <c r="BA5">
+        <v>0</v>
+      </c>
+      <c r="BB5">
+        <v>0</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>0</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <v>0</v>
+      </c>
+      <c r="BG5">
+        <v>0</v>
+      </c>
+      <c r="BH5">
+        <v>0</v>
+      </c>
+      <c r="BI5">
+        <v>0</v>
+      </c>
+      <c r="BJ5">
+        <v>0</v>
+      </c>
+      <c r="BK5">
+        <v>0</v>
+      </c>
+      <c r="BL5">
+        <v>0</v>
+      </c>
+      <c r="BM5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test1.xlsx
+++ b/test1.xlsx
@@ -439,13 +439,13 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -517,13 +517,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -543,13 +543,13 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -569,13 +569,13 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -621,13 +621,13 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -725,13 +725,13 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>75</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -803,13 +803,13 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -855,13 +855,13 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -881,13 +881,13 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -933,13 +933,13 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1011,13 +1011,13 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1037,13 +1037,13 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1089,13 +1089,13 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>90</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1115,13 +1115,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1173,7 +1173,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1219,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -1245,13 +1245,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1271,13 +1271,13 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1349,13 +1349,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1401,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1427,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -1453,13 +1453,13 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.008999999999999999</v>
+        <v>0.003</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1505,13 +1505,13 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1531,13 +1531,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G45">
         <v>0</v>
       </c>
       <c r="H45">
-        <v>75</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1557,13 +1557,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G46">
         <v>0</v>
       </c>
       <c r="H46">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G47">
         <v>0</v>
       </c>
       <c r="H47">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1609,13 +1609,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1635,13 +1635,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G49">
         <v>0</v>
       </c>
       <c r="H49">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1661,13 +1661,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1687,13 +1687,13 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1739,13 +1739,13 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1765,13 +1765,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G54">
         <v>0</v>
       </c>
       <c r="H54">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1791,13 +1791,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1823,7 +1823,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1843,13 +1843,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1869,13 +1869,13 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="G58">
         <v>0</v>
       </c>
       <c r="H58">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1895,13 +1895,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G59">
         <v>0</v>
       </c>
       <c r="H59">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1921,13 +1921,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G60">
         <v>0</v>
       </c>
       <c r="H60">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1947,13 +1947,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="G62">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2031,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2051,13 +2051,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2077,13 +2077,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2109,7 +2109,7 @@
         <v>0</v>
       </c>
       <c r="H67">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -2155,13 +2155,13 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2181,13 +2181,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2233,13 +2233,13 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2259,13 +2259,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2291,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="H74">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2317,7 +2317,7 @@
         <v>0</v>
       </c>
       <c r="H75">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2337,13 +2337,13 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2389,13 +2389,13 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G78">
         <v>0</v>
       </c>
       <c r="H78">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2441,13 +2441,13 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G80">
         <v>0</v>
       </c>
       <c r="H80">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2473,7 +2473,7 @@
         <v>0</v>
       </c>
       <c r="H81">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2545,13 +2545,13 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2571,13 +2571,13 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G85">
         <v>0</v>
       </c>
       <c r="H85">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2597,13 +2597,13 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G86">
         <v>0</v>
       </c>
       <c r="H86">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2623,13 +2623,13 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G87">
         <v>0</v>
       </c>
       <c r="H87">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G88">
         <v>0</v>
       </c>
       <c r="H88">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>77</v>
+        <v>86</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2707,7 +2707,7 @@
         <v>0</v>
       </c>
       <c r="H90">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.007</v>
+        <v>0.001</v>
       </c>
       <c r="G91">
         <v>0</v>
       </c>
       <c r="H91">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2753,13 +2753,13 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="G92">
         <v>0</v>
       </c>
       <c r="H92">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2785,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2805,13 +2805,13 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2857,13 +2857,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2883,13 +2883,13 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>92</v>
+        <v>79</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2909,13 +2909,13 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2935,13 +2935,13 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -2987,13 +2987,13 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3019,7 +3019,7 @@
         <v>0</v>
       </c>
       <c r="H102">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3045,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3065,13 +3065,13 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>78</v>
+        <v>94</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3117,13 +3117,13 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3143,13 +3143,13 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3175,7 +3175,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3195,13 +3195,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3227,7 +3227,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3273,13 +3273,13 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3299,13 +3299,13 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3325,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0.004</v>
+        <v>0.01</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3351,13 +3351,13 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3377,13 +3377,13 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3403,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3429,13 +3429,13 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>80</v>
+        <v>98</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="H119">
-        <v>85</v>
+        <v>97</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3481,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3507,13 +3507,13 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3559,13 +3559,13 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="H124">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3611,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3643,7 +3643,7 @@
         <v>0</v>
       </c>
       <c r="H126">
-        <v>76</v>
+        <v>91</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3663,13 +3663,13 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="H128">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3741,13 +3741,13 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3819,13 +3819,13 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="G133">
         <v>0</v>
       </c>
       <c r="H133">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3845,13 +3845,13 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G134">
         <v>0</v>
       </c>
       <c r="H134">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3877,7 +3877,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3897,13 +3897,13 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="G136">
         <v>0</v>
       </c>
       <c r="H136">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3923,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G137">
         <v>0</v>
       </c>
       <c r="H137">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3949,13 +3949,13 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G138">
         <v>0</v>
       </c>
       <c r="H138">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -3981,7 +3981,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>93</v>
+        <v>76</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4001,13 +4001,13 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G140">
         <v>0</v>
       </c>
       <c r="H140">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G141">
         <v>0</v>
       </c>
       <c r="H141">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4053,13 +4053,13 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G142">
         <v>0</v>
       </c>
       <c r="H142">
-        <v>80</v>
+        <v>94</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4079,13 +4079,13 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G143">
         <v>0</v>
       </c>
       <c r="H143">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4105,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G144">
         <v>0</v>
@@ -4131,13 +4131,13 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="G145">
         <v>0</v>
       </c>
       <c r="H145">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4157,13 +4157,13 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G146">
         <v>0</v>
       </c>
       <c r="H146">
-        <v>81</v>
+        <v>88</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4235,13 +4235,13 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G149">
         <v>0</v>
       </c>
       <c r="H149">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4287,13 +4287,13 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G151">
         <v>0</v>
       </c>
       <c r="H151">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4313,13 +4313,13 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G152">
         <v>0</v>
       </c>
       <c r="H152">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4339,13 +4339,13 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G153">
         <v>0</v>
       </c>
       <c r="H153">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4365,13 +4365,13 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G154">
         <v>0</v>
       </c>
       <c r="H154">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4397,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4417,13 +4417,13 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>0.006</v>
+        <v>0.016</v>
       </c>
       <c r="G156">
         <v>0</v>
       </c>
       <c r="H156">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4475,7 +4475,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4495,13 +4495,13 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="G159">
         <v>0</v>
       </c>
       <c r="H159">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4521,13 +4521,13 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="G160">
         <v>0</v>
       </c>
       <c r="H160">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4547,13 +4547,13 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G161">
         <v>0</v>
       </c>
       <c r="H161">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="G162">
         <v>0</v>
@@ -4599,13 +4599,13 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>0.01</v>
+        <v>0.003</v>
       </c>
       <c r="G163">
         <v>0</v>
       </c>
       <c r="H163">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4625,13 +4625,13 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>0.005</v>
+        <v>0.002</v>
       </c>
       <c r="G164">
         <v>0</v>
       </c>
       <c r="H164">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4651,13 +4651,13 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="G165">
         <v>0</v>
       </c>
       <c r="H165">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4677,13 +4677,13 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G166">
         <v>0</v>
       </c>
       <c r="H166">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4703,13 +4703,13 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G167">
         <v>0</v>
       </c>
       <c r="H167">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4729,13 +4729,13 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G168">
         <v>0</v>
       </c>
       <c r="H168">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4761,7 +4761,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4833,13 +4833,13 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G172">
         <v>0</v>
       </c>
       <c r="H172">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4865,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4885,13 +4885,13 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>0.001</v>
+        <v>0.005</v>
       </c>
       <c r="G174">
         <v>0</v>
       </c>
       <c r="H174">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4911,13 +4911,13 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G175">
         <v>0</v>
       </c>
       <c r="H175">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4943,7 +4943,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4963,13 +4963,13 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="G177">
         <v>0</v>
       </c>
       <c r="H177">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -4989,13 +4989,13 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="G178">
         <v>0</v>
       </c>
       <c r="H178">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5015,13 +5015,13 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G179">
         <v>0</v>
       </c>
       <c r="H179">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5047,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5093,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G182">
         <v>0</v>
       </c>
       <c r="H182">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5125,7 +5125,7 @@
         <v>0</v>
       </c>
       <c r="H183">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5145,13 +5145,13 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G184">
         <v>0</v>
       </c>
       <c r="H184">
-        <v>76</v>
+        <v>89</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5171,13 +5171,13 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="G185">
         <v>0</v>
       </c>
       <c r="H185">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5197,13 +5197,13 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="G186">
         <v>0</v>
       </c>
       <c r="H186">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5223,7 +5223,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G187">
         <v>0</v>
@@ -5249,13 +5249,13 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="G188">
         <v>0</v>
       </c>
       <c r="H188">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5275,13 +5275,13 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>0.003</v>
+        <v>0.005</v>
       </c>
       <c r="G189">
         <v>0</v>
       </c>
       <c r="H189">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5307,7 +5307,7 @@
         <v>0</v>
       </c>
       <c r="H190">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5327,13 +5327,13 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="G191">
         <v>0</v>
       </c>
       <c r="H191">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5353,13 +5353,13 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="G192">
         <v>0</v>
       </c>
       <c r="H192">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5379,13 +5379,13 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="G193">
         <v>0</v>
       </c>
       <c r="H193">
-        <v>81</v>
+        <v>86</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5405,7 +5405,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="G194">
         <v>0</v>
@@ -5437,7 +5437,7 @@
         <v>0</v>
       </c>
       <c r="H195">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="H196">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5483,13 +5483,13 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="G197">
         <v>0</v>
       </c>
       <c r="H197">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5509,13 +5509,13 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G198">
         <v>0</v>
       </c>
       <c r="H198">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5535,13 +5535,13 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G199">
         <v>0</v>
       </c>
       <c r="H199">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5567,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="H200">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5587,13 +5587,13 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="G201">
         <v>0</v>
       </c>
       <c r="H201">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5613,13 +5613,13 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="G202">
         <v>0</v>
       </c>
       <c r="H202">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -5660,22 +5660,22 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.981</v>
+      </c>
+      <c r="C2">
+        <v>0.703</v>
+      </c>
+      <c r="D2">
+        <v>0.571</v>
+      </c>
+      <c r="E2">
+        <v>0.703</v>
+      </c>
+      <c r="F2">
         <v>0.338</v>
       </c>
-      <c r="C2">
-        <v>0.828</v>
-      </c>
-      <c r="D2">
-        <v>0.703</v>
-      </c>
-      <c r="E2">
-        <v>0.981</v>
-      </c>
-      <c r="F2">
-        <v>0.571</v>
-      </c>
       <c r="G2">
-        <v>0.124</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -5683,22 +5683,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.571</v>
+        <v>0.338</v>
       </c>
       <c r="C3">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="D3">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="E3">
-        <v>0.828</v>
+        <v>0.446</v>
       </c>
       <c r="F3">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="G3">
-        <v>0.249</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -5706,22 +5706,22 @@
         <v>2</v>
       </c>
       <c r="B4">
+        <v>0.571</v>
+      </c>
+      <c r="C4">
         <v>0.249</v>
       </c>
-      <c r="C4">
-        <v>0.925</v>
-      </c>
       <c r="D4">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="E4">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="F4">
-        <v>0.925</v>
+        <v>0.981</v>
       </c>
       <c r="G4">
-        <v>0.178</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -5729,22 +5729,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.178</v>
+        <v>0.703</v>
       </c>
       <c r="C5">
-        <v>0.249</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D5">
         <v>0.571</v>
       </c>
       <c r="E5">
-        <v>0.571</v>
+        <v>0.036</v>
       </c>
       <c r="F5">
-        <v>0.446</v>
+        <v>0.338</v>
       </c>
       <c r="G5">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -5752,22 +5752,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="C6">
-        <v>0.178</v>
+        <v>0.703</v>
       </c>
       <c r="D6">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="E6">
-        <v>0.703</v>
+        <v>0.338</v>
       </c>
       <c r="F6">
-        <v>0.338</v>
+        <v>0.828</v>
       </c>
       <c r="G6">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -5775,22 +5775,22 @@
         <v>5</v>
       </c>
       <c r="B7">
+        <v>0.703</v>
+      </c>
+      <c r="C7">
+        <v>0.446</v>
+      </c>
+      <c r="D7">
+        <v>0.828</v>
+      </c>
+      <c r="E7">
         <v>0.178</v>
       </c>
-      <c r="C7">
-        <v>0.338</v>
-      </c>
-      <c r="D7">
-        <v>0.338</v>
-      </c>
-      <c r="E7">
-        <v>0.571</v>
-      </c>
       <c r="F7">
-        <v>0.828</v>
+        <v>0.446</v>
       </c>
       <c r="G7">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -5798,22 +5798,22 @@
         <v>6</v>
       </c>
       <c r="B8">
+        <v>0.998</v>
+      </c>
+      <c r="C8">
+        <v>0.446</v>
+      </c>
+      <c r="D8">
+        <v>0.981</v>
+      </c>
+      <c r="E8">
+        <v>0.446</v>
+      </c>
+      <c r="F8">
+        <v>0.828</v>
+      </c>
+      <c r="G8">
         <v>0.338</v>
-      </c>
-      <c r="C8">
-        <v>0.703</v>
-      </c>
-      <c r="D8">
-        <v>0.925</v>
-      </c>
-      <c r="E8">
-        <v>0.571</v>
-      </c>
-      <c r="F8">
-        <v>0.338</v>
-      </c>
-      <c r="G8">
-        <v>0.703</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -5821,19 +5821,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.338</v>
+        <v>0.981</v>
       </c>
       <c r="C9">
-        <v>0.08500000000000001</v>
+        <v>0.249</v>
       </c>
       <c r="D9">
-        <v>0.981</v>
+        <v>0.925</v>
       </c>
       <c r="E9">
-        <v>0.178</v>
+        <v>0.828</v>
       </c>
       <c r="F9">
-        <v>0.338</v>
+        <v>0.703</v>
       </c>
       <c r="G9">
         <v>0.446</v>
@@ -5844,19 +5844,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="C10">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
       <c r="D10">
-        <v>0.571</v>
+        <v>0.828</v>
       </c>
       <c r="E10">
-        <v>0.703</v>
+        <v>0.249</v>
       </c>
       <c r="F10">
-        <v>0.925</v>
+        <v>0.446</v>
       </c>
       <c r="G10">
         <v>0.828</v>
@@ -5870,19 +5870,19 @@
         <v>0.828</v>
       </c>
       <c r="C11">
+        <v>0.828</v>
+      </c>
+      <c r="D11">
+        <v>0.703</v>
+      </c>
+      <c r="E11">
+        <v>0.828</v>
+      </c>
+      <c r="F11">
         <v>0.178</v>
       </c>
-      <c r="D11">
-        <v>0.925</v>
-      </c>
-      <c r="E11">
-        <v>0.703</v>
-      </c>
-      <c r="F11">
-        <v>0.828</v>
-      </c>
       <c r="G11">
-        <v>0.005</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5890,22 +5890,22 @@
         <v>10</v>
       </c>
       <c r="B12">
+        <v>0.703</v>
+      </c>
+      <c r="C12">
+        <v>0.571</v>
+      </c>
+      <c r="D12">
+        <v>0.446</v>
+      </c>
+      <c r="E12">
         <v>0.338</v>
       </c>
-      <c r="C12">
-        <v>0.571</v>
-      </c>
-      <c r="D12">
-        <v>0.571</v>
-      </c>
-      <c r="E12">
-        <v>0.446</v>
-      </c>
       <c r="F12">
         <v>0.571</v>
       </c>
       <c r="G12">
-        <v>0.178</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -5916,19 +5916,19 @@
         <v>0.571</v>
       </c>
       <c r="C13">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="D13">
         <v>0.571</v>
       </c>
       <c r="E13">
-        <v>0.446</v>
+        <v>0.178</v>
       </c>
       <c r="F13">
-        <v>0.571</v>
+        <v>0.828</v>
       </c>
       <c r="G13">
-        <v>0.249</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -5936,22 +5936,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="C14">
-        <v>0.338</v>
+        <v>0.249</v>
       </c>
       <c r="D14">
-        <v>0.828</v>
+        <v>0.998</v>
       </c>
       <c r="E14">
-        <v>0.703</v>
+        <v>0.124</v>
       </c>
       <c r="F14">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="G14">
-        <v>0.124</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -5959,22 +5959,22 @@
         <v>13</v>
       </c>
       <c r="B15">
+        <v>0.249</v>
+      </c>
+      <c r="C15">
+        <v>0.703</v>
+      </c>
+      <c r="D15">
+        <v>0.981</v>
+      </c>
+      <c r="E15">
+        <v>0.703</v>
+      </c>
+      <c r="F15">
         <v>0.124</v>
       </c>
-      <c r="C15">
-        <v>0.124</v>
-      </c>
-      <c r="D15">
-        <v>0.925</v>
-      </c>
-      <c r="E15">
-        <v>0.828</v>
-      </c>
-      <c r="F15">
-        <v>0.571</v>
-      </c>
       <c r="G15">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -5982,22 +5982,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.08500000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="C16">
-        <v>0.124</v>
+        <v>0.828</v>
       </c>
       <c r="D16">
-        <v>0.981</v>
+        <v>0.925</v>
       </c>
       <c r="E16">
-        <v>0.981</v>
+        <v>0.828</v>
       </c>
       <c r="F16">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="G16">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -6005,22 +6005,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.249</v>
+        <v>0.338</v>
       </c>
       <c r="C17">
+        <v>0.338</v>
+      </c>
+      <c r="D17">
         <v>0.08500000000000001</v>
       </c>
-      <c r="D17">
-        <v>0.571</v>
-      </c>
       <c r="E17">
-        <v>0.998</v>
+        <v>0.703</v>
       </c>
       <c r="F17">
-        <v>0.338</v>
+        <v>0.981</v>
       </c>
       <c r="G17">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -6028,22 +6028,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="C18">
-        <v>0.124</v>
+        <v>0.249</v>
       </c>
       <c r="D18">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="E18">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="F18">
-        <v>0.446</v>
+        <v>0.981</v>
       </c>
       <c r="G18">
-        <v>0.981</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6054,19 +6054,19 @@
         <v>0.925</v>
       </c>
       <c r="C19">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
       <c r="D19">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="E19">
-        <v>0.703</v>
+        <v>0.249</v>
       </c>
       <c r="F19">
-        <v>0.925</v>
+        <v>0.249</v>
       </c>
       <c r="G19">
-        <v>0.178</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -6074,22 +6074,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.124</v>
+        <v>0.828</v>
       </c>
       <c r="C20">
-        <v>0.925</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D20">
         <v>0.828</v>
       </c>
       <c r="E20">
-        <v>0.828</v>
+        <v>0.703</v>
       </c>
       <c r="F20">
-        <v>0.338</v>
+        <v>0.828</v>
       </c>
       <c r="G20">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -6097,22 +6097,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="C21">
-        <v>0.178</v>
+        <v>0.703</v>
       </c>
       <c r="D21">
-        <v>0.338</v>
+        <v>0.998</v>
       </c>
       <c r="E21">
-        <v>0.981</v>
+        <v>0.703</v>
       </c>
       <c r="F21">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="G21">
-        <v>0.023</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -6123,19 +6123,19 @@
         <v>0.828</v>
       </c>
       <c r="C22">
-        <v>0.338</v>
+        <v>0.703</v>
       </c>
       <c r="D22">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="E22">
-        <v>0.338</v>
+        <v>0.981</v>
       </c>
       <c r="F22">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
       <c r="G22">
-        <v>0.124</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -6143,22 +6143,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="C23">
-        <v>0.124</v>
+        <v>0.703</v>
       </c>
       <c r="D23">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="E23">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="F23">
+        <v>0.571</v>
+      </c>
+      <c r="G23">
         <v>0.981</v>
-      </c>
-      <c r="G23">
-        <v>0.056</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -6166,22 +6166,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="C24">
-        <v>0.925</v>
+        <v>0.981</v>
       </c>
       <c r="D24">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
       <c r="E24">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="F24">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="G24">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -6189,22 +6189,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.925</v>
+        <v>0.178</v>
       </c>
       <c r="C25">
         <v>0.571</v>
       </c>
       <c r="D25">
-        <v>0.703</v>
+        <v>0.998</v>
       </c>
       <c r="E25">
-        <v>0.249</v>
+        <v>0.008</v>
       </c>
       <c r="F25">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
       <c r="G25">
-        <v>0.056</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -6212,22 +6212,22 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.828</v>
+        <v>0.249</v>
       </c>
       <c r="C26">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="D26">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="E26">
-        <v>0.925</v>
+        <v>0.571</v>
       </c>
       <c r="F26">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="G26">
-        <v>0.178</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -6235,22 +6235,22 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="C27">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="D27">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="E27">
-        <v>0.571</v>
+        <v>0.056</v>
       </c>
       <c r="F27">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
       <c r="G27">
-        <v>0.981</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -6261,19 +6261,19 @@
         <v>0.703</v>
       </c>
       <c r="C28">
-        <v>0.925</v>
+        <v>0.178</v>
       </c>
       <c r="D28">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="E28">
-        <v>0.925</v>
+        <v>0.124</v>
       </c>
       <c r="F28">
         <v>0.925</v>
       </c>
       <c r="G28">
-        <v>0.178</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -6281,22 +6281,22 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.178</v>
+        <v>0.571</v>
       </c>
       <c r="C29">
+        <v>0.124</v>
+      </c>
+      <c r="D29">
+        <v>0.925</v>
+      </c>
+      <c r="E29">
         <v>0.338</v>
       </c>
-      <c r="D29">
-        <v>0.703</v>
-      </c>
-      <c r="E29">
-        <v>0.703</v>
-      </c>
       <c r="F29">
-        <v>0.08500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="G29">
-        <v>0.178</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -6304,22 +6304,22 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="C30">
-        <v>0.925</v>
+        <v>0.571</v>
       </c>
       <c r="D30">
-        <v>0.828</v>
+        <v>0.178</v>
       </c>
       <c r="E30">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="F30">
-        <v>0.925</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G30">
-        <v>0.338</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -6327,22 +6327,22 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.338</v>
+        <v>0.703</v>
       </c>
       <c r="C31">
         <v>0.08500000000000001</v>
       </c>
       <c r="D31">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="E31">
-        <v>0.571</v>
+        <v>0.828</v>
       </c>
       <c r="F31">
-        <v>0.925</v>
+        <v>0.571</v>
       </c>
       <c r="G31">
-        <v>0.446</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -6350,22 +6350,22 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.998</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C32">
-        <v>0.124</v>
+        <v>0.571</v>
       </c>
       <c r="D32">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="E32">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="F32">
-        <v>0.178</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G32">
-        <v>0.338</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -6373,22 +6373,22 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.925</v>
+        <v>0.981</v>
       </c>
       <c r="C33">
-        <v>0.249</v>
+        <v>0.571</v>
       </c>
       <c r="D33">
-        <v>0.703</v>
+        <v>0.998</v>
       </c>
       <c r="E33">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
       <c r="F33">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="G33">
-        <v>0.056</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -6396,22 +6396,22 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.571</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C34">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="D34">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="E34">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="F34">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="G34">
-        <v>0.925</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -6419,22 +6419,22 @@
         <v>33</v>
       </c>
       <c r="B35">
+        <v>0.446</v>
+      </c>
+      <c r="C35">
         <v>0.338</v>
       </c>
-      <c r="C35">
-        <v>0.703</v>
-      </c>
       <c r="D35">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
       <c r="E35">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="F35">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="G35">
-        <v>0.925</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -6442,22 +6442,22 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.08500000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="C36">
-        <v>0.446</v>
+        <v>0.249</v>
       </c>
       <c r="D36">
-        <v>0.124</v>
+        <v>0.571</v>
       </c>
       <c r="E36">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="F36">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="G36">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -6465,22 +6465,22 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.08500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="C37">
-        <v>0.178</v>
+        <v>0.703</v>
       </c>
       <c r="D37">
-        <v>0.828</v>
+        <v>0.446</v>
       </c>
       <c r="E37">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="F37">
-        <v>0.981</v>
+        <v>0.338</v>
       </c>
       <c r="G37">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -6488,22 +6488,22 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="C38">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="D38">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
       <c r="E38">
-        <v>0.998</v>
+        <v>0.446</v>
       </c>
       <c r="F38">
-        <v>0.08500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="G38">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -6511,22 +6511,22 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="C39">
-        <v>0.446</v>
+        <v>0.249</v>
       </c>
       <c r="D39">
         <v>0.981</v>
       </c>
       <c r="E39">
-        <v>0.981</v>
+        <v>0.703</v>
       </c>
       <c r="F39">
         <v>0.338</v>
       </c>
       <c r="G39">
-        <v>0.981</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -6534,22 +6534,22 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="C40">
-        <v>0.446</v>
+        <v>0.178</v>
       </c>
       <c r="D40">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="E40">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="F40">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="G40">
-        <v>0.178</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -6557,22 +6557,22 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.703</v>
+        <v>0.249</v>
       </c>
       <c r="C41">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="D41">
-        <v>0.446</v>
+        <v>0.981</v>
       </c>
       <c r="E41">
         <v>0.828</v>
       </c>
       <c r="F41">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="G41">
-        <v>0.249</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -6580,22 +6580,22 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.178</v>
+        <v>0.925</v>
       </c>
       <c r="C42">
         <v>0.446</v>
       </c>
       <c r="D42">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="E42">
-        <v>0.925</v>
+        <v>0.446</v>
       </c>
       <c r="F42">
-        <v>0.925</v>
+        <v>0.249</v>
       </c>
       <c r="G42">
-        <v>0.124</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -6603,22 +6603,22 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="C43">
-        <v>0.338</v>
+        <v>0.828</v>
       </c>
       <c r="D43">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="E43">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="F43">
-        <v>0.056</v>
+        <v>0.703</v>
       </c>
       <c r="G43">
-        <v>0.981</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -6626,19 +6626,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.828</v>
+        <v>0.023</v>
       </c>
       <c r="C44">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="D44">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="E44">
-        <v>0.338</v>
+        <v>0.249</v>
       </c>
       <c r="F44">
-        <v>0.998</v>
+        <v>0.571</v>
       </c>
       <c r="G44">
         <v>0.178</v>
@@ -6649,22 +6649,22 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="C45">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
       <c r="D45">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="E45">
-        <v>0.446</v>
+        <v>0.036</v>
       </c>
       <c r="F45">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="G45">
-        <v>0.249</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -6672,22 +6672,22 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.571</v>
+        <v>0.828</v>
       </c>
       <c r="C46">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="D46">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="E46">
         <v>0.925</v>
       </c>
       <c r="F46">
-        <v>0.571</v>
+        <v>0.981</v>
       </c>
       <c r="G46">
-        <v>0.003</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -6695,22 +6695,22 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
       <c r="C47">
+        <v>0.178</v>
+      </c>
+      <c r="D47">
+        <v>0.828</v>
+      </c>
+      <c r="E47">
         <v>0.338</v>
       </c>
-      <c r="D47">
-        <v>0.571</v>
-      </c>
-      <c r="E47">
-        <v>0.828</v>
-      </c>
       <c r="F47">
+        <v>0.446</v>
+      </c>
+      <c r="G47">
         <v>0.981</v>
-      </c>
-      <c r="G47">
-        <v>0.249</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -6718,22 +6718,22 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="C48">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="D48">
-        <v>0.828</v>
+        <v>0.998</v>
       </c>
       <c r="E48">
-        <v>0.703</v>
+        <v>0.249</v>
       </c>
       <c r="F48">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="G48">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -6741,22 +6741,22 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.178</v>
+        <v>0.249</v>
       </c>
       <c r="C49">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="D49">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="E49">
-        <v>0.571</v>
+        <v>0.338</v>
       </c>
       <c r="F49">
-        <v>0.124</v>
+        <v>0.981</v>
       </c>
       <c r="G49">
-        <v>0.124</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -6767,19 +6767,19 @@
         <v>0.571</v>
       </c>
       <c r="C50">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="D50">
-        <v>0.249</v>
+        <v>0.925</v>
       </c>
       <c r="E50">
-        <v>0.998</v>
+        <v>0.703</v>
       </c>
       <c r="F50">
         <v>0.446</v>
       </c>
       <c r="G50">
-        <v>0.925</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -6787,22 +6787,22 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="C51">
-        <v>0.571</v>
+        <v>0.249</v>
       </c>
       <c r="D51">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="E51">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="F51">
-        <v>0.703</v>
+        <v>0.338</v>
       </c>
       <c r="G51">
-        <v>0.178</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -6810,22 +6810,22 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="C52">
+        <v>0.571</v>
+      </c>
+      <c r="D52">
         <v>0.249</v>
       </c>
-      <c r="D52">
-        <v>0.828</v>
-      </c>
       <c r="E52">
-        <v>0.178</v>
+        <v>0.703</v>
       </c>
       <c r="F52">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="G52">
-        <v>0.981</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -6833,22 +6833,22 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.249</v>
+        <v>0.925</v>
       </c>
       <c r="C53">
-        <v>0.571</v>
+        <v>0.828</v>
       </c>
       <c r="D53">
-        <v>0.571</v>
+        <v>0.981</v>
       </c>
       <c r="E53">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
       <c r="F53">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="G53">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -6859,19 +6859,19 @@
         <v>0.571</v>
       </c>
       <c r="C54">
-        <v>0.249</v>
+        <v>0.703</v>
       </c>
       <c r="D54">
-        <v>0.036</v>
+        <v>0.446</v>
       </c>
       <c r="E54">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="F54">
-        <v>0.925</v>
+        <v>0.981</v>
       </c>
       <c r="G54">
-        <v>0.124</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -6879,22 +6879,22 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.703</v>
+        <v>0.124</v>
       </c>
       <c r="C55">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="D55">
         <v>0.828</v>
       </c>
       <c r="E55">
-        <v>0.338</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F55">
+        <v>0.703</v>
+      </c>
+      <c r="G55">
         <v>0.981</v>
-      </c>
-      <c r="G55">
-        <v>0.828</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -6902,22 +6902,22 @@
         <v>54</v>
       </c>
       <c r="B56">
+        <v>0.828</v>
+      </c>
+      <c r="C56">
+        <v>0.446</v>
+      </c>
+      <c r="D56">
+        <v>0.703</v>
+      </c>
+      <c r="E56">
         <v>0.08500000000000001</v>
       </c>
-      <c r="C56">
+      <c r="F56">
+        <v>0.703</v>
+      </c>
+      <c r="G56">
         <v>0.124</v>
-      </c>
-      <c r="D56">
-        <v>0.703</v>
-      </c>
-      <c r="E56">
-        <v>0.571</v>
-      </c>
-      <c r="F56">
-        <v>0.703</v>
-      </c>
-      <c r="G56">
-        <v>0.571</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -6925,22 +6925,22 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.571</v>
+        <v>0.338</v>
       </c>
       <c r="C57">
-        <v>0.178</v>
+        <v>0.446</v>
       </c>
       <c r="D57">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="E57">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="F57">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="G57">
-        <v>0.998</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -6948,22 +6948,22 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.178</v>
+        <v>0.446</v>
       </c>
       <c r="C58">
-        <v>0.249</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D58">
-        <v>0.981</v>
+        <v>0.338</v>
       </c>
       <c r="E58">
         <v>0.338</v>
       </c>
       <c r="F58">
-        <v>0.446</v>
+        <v>0.178</v>
       </c>
       <c r="G58">
-        <v>0.249</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -6971,22 +6971,22 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="C59">
-        <v>0.446</v>
+        <v>0.338</v>
       </c>
       <c r="D59">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="E59">
-        <v>0.249</v>
+        <v>0.828</v>
       </c>
       <c r="F59">
-        <v>0.981</v>
+        <v>0.446</v>
       </c>
       <c r="G59">
-        <v>0.023</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -6994,22 +6994,22 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="C60">
-        <v>0.124</v>
+        <v>0.571</v>
       </c>
       <c r="D60">
+        <v>0.828</v>
+      </c>
+      <c r="E60">
+        <v>0.703</v>
+      </c>
+      <c r="F60">
         <v>0.338</v>
       </c>
-      <c r="E60">
-        <v>0.925</v>
-      </c>
-      <c r="F60">
-        <v>0.249</v>
-      </c>
       <c r="G60">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -7017,22 +7017,22 @@
         <v>59</v>
       </c>
       <c r="B61">
+        <v>0.828</v>
+      </c>
+      <c r="C61">
+        <v>0.703</v>
+      </c>
+      <c r="D61">
+        <v>0.925</v>
+      </c>
+      <c r="E61">
         <v>0.981</v>
       </c>
-      <c r="C61">
-        <v>0.446</v>
-      </c>
-      <c r="D61">
-        <v>0.446</v>
-      </c>
-      <c r="E61">
-        <v>0.828</v>
-      </c>
       <c r="F61">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="G61">
-        <v>0.249</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -7040,22 +7040,22 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.014</v>
+        <v>0.703</v>
       </c>
       <c r="C62">
-        <v>0.124</v>
+        <v>0.338</v>
       </c>
       <c r="D62">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="E62">
-        <v>0.178</v>
+        <v>0.828</v>
       </c>
       <c r="F62">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="G62">
-        <v>0.178</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -7063,22 +7063,22 @@
         <v>61</v>
       </c>
       <c r="B63">
+        <v>0.925</v>
+      </c>
+      <c r="C63">
+        <v>0.036</v>
+      </c>
+      <c r="D63">
+        <v>0.981</v>
+      </c>
+      <c r="E63">
+        <v>0.828</v>
+      </c>
+      <c r="F63">
         <v>0.249</v>
       </c>
-      <c r="C63">
-        <v>0.249</v>
-      </c>
-      <c r="D63">
-        <v>0.446</v>
-      </c>
-      <c r="E63">
-        <v>0.998</v>
-      </c>
-      <c r="F63">
-        <v>0.178</v>
-      </c>
       <c r="G63">
-        <v>0.178</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -7086,22 +7086,22 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="C64">
-        <v>0.338</v>
+        <v>0.249</v>
       </c>
       <c r="D64">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="E64">
-        <v>0.981</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F64">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
       <c r="G64">
-        <v>0.08500000000000001</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -7109,22 +7109,22 @@
         <v>63</v>
       </c>
       <c r="B65">
+        <v>0.703</v>
+      </c>
+      <c r="C65">
+        <v>0.703</v>
+      </c>
+      <c r="D65">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="E65">
         <v>0.338</v>
       </c>
-      <c r="C65">
-        <v>0.446</v>
-      </c>
-      <c r="D65">
-        <v>0.703</v>
-      </c>
-      <c r="E65">
-        <v>0.998</v>
-      </c>
       <c r="F65">
-        <v>0.338</v>
+        <v>0.703</v>
       </c>
       <c r="G65">
-        <v>0.446</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -7132,22 +7132,22 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
       <c r="C66">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="D66">
         <v>0.703</v>
       </c>
       <c r="E66">
-        <v>0.925</v>
+        <v>0.124</v>
       </c>
       <c r="F66">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="G66">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -7155,7 +7155,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="C67">
         <v>0.446</v>
@@ -7164,13 +7164,13 @@
         <v>0.446</v>
       </c>
       <c r="E67">
-        <v>0.178</v>
+        <v>0.005</v>
       </c>
       <c r="F67">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="G67">
-        <v>0.178</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -7178,22 +7178,22 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.056</v>
+        <v>0.828</v>
       </c>
       <c r="C68">
-        <v>0.703</v>
+        <v>0.338</v>
       </c>
       <c r="D68">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="E68">
-        <v>0.571</v>
+        <v>0.981</v>
       </c>
       <c r="F68">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
       <c r="G68">
-        <v>0.249</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -7201,22 +7201,22 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="C69">
-        <v>0.338</v>
+        <v>0.828</v>
       </c>
       <c r="D69">
-        <v>0.338</v>
+        <v>0.828</v>
       </c>
       <c r="E69">
         <v>0.925</v>
       </c>
       <c r="F69">
-        <v>0.998</v>
+        <v>0.828</v>
       </c>
       <c r="G69">
-        <v>0.005</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -7224,22 +7224,22 @@
         <v>68</v>
       </c>
       <c r="B70">
+        <v>0.828</v>
+      </c>
+      <c r="C70">
+        <v>0.036</v>
+      </c>
+      <c r="D70">
+        <v>0.925</v>
+      </c>
+      <c r="E70">
         <v>0.338</v>
       </c>
-      <c r="C70">
-        <v>0.178</v>
-      </c>
-      <c r="D70">
-        <v>0.249</v>
-      </c>
-      <c r="E70">
-        <v>0.571</v>
-      </c>
       <c r="F70">
-        <v>0.703</v>
+        <v>0.338</v>
       </c>
       <c r="G70">
-        <v>0.249</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -7247,22 +7247,22 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.828</v>
+        <v>0.446</v>
       </c>
       <c r="C71">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="D71">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="E71">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="F71">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="G71">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -7270,22 +7270,22 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="C72">
-        <v>0.08500000000000001</v>
+        <v>0.338</v>
       </c>
       <c r="D72">
         <v>0.571</v>
       </c>
       <c r="E72">
-        <v>0.925</v>
+        <v>0.446</v>
       </c>
       <c r="F72">
-        <v>0.249</v>
+        <v>0.925</v>
       </c>
       <c r="G72">
-        <v>0.571</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -7293,22 +7293,22 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.981</v>
+        <v>0.446</v>
       </c>
       <c r="C73">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="D73">
-        <v>0.998</v>
+        <v>0.828</v>
       </c>
       <c r="E73">
-        <v>0.925</v>
+        <v>0.249</v>
       </c>
       <c r="F73">
-        <v>0.571</v>
+        <v>0.249</v>
       </c>
       <c r="G73">
-        <v>0.023</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -7316,22 +7316,22 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.446</v>
+        <v>0.124</v>
       </c>
       <c r="C74">
-        <v>0.338</v>
+        <v>0.703</v>
       </c>
       <c r="D74">
-        <v>0.124</v>
+        <v>0.998</v>
       </c>
       <c r="E74">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="F74">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="G74">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -7339,22 +7339,22 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
       <c r="C75">
-        <v>0.249</v>
+        <v>0.014</v>
       </c>
       <c r="D75">
         <v>0.981</v>
       </c>
       <c r="E75">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="F75">
-        <v>0.08500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="G75">
-        <v>0.178</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -7362,22 +7362,22 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.571</v>
+        <v>0.981</v>
       </c>
       <c r="C76">
         <v>0.249</v>
       </c>
       <c r="D76">
-        <v>0.249</v>
+        <v>0.925</v>
       </c>
       <c r="E76">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="F76">
-        <v>0.981</v>
+        <v>0.703</v>
       </c>
       <c r="G76">
-        <v>0.249</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -7385,22 +7385,22 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="C77">
-        <v>0.446</v>
+        <v>0.249</v>
       </c>
       <c r="D77">
-        <v>0.338</v>
+        <v>0.981</v>
       </c>
       <c r="E77">
-        <v>0.828</v>
+        <v>0.446</v>
       </c>
       <c r="F77">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
       <c r="G77">
-        <v>0.178</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -7408,22 +7408,22 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.571</v>
+        <v>0.178</v>
       </c>
       <c r="C78">
-        <v>0.981</v>
+        <v>0.925</v>
       </c>
       <c r="D78">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="E78">
-        <v>0.828</v>
+        <v>0.446</v>
       </c>
       <c r="F78">
-        <v>0.338</v>
+        <v>0.249</v>
       </c>
       <c r="G78">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -7434,19 +7434,19 @@
         <v>0.446</v>
       </c>
       <c r="C79">
-        <v>0.998</v>
+        <v>0.571</v>
       </c>
       <c r="D79">
-        <v>0.249</v>
+        <v>0.981</v>
       </c>
       <c r="E79">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
       <c r="F79">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="G79">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -7454,16 +7454,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="C80">
         <v>0.703</v>
       </c>
       <c r="D80">
-        <v>0.981</v>
+        <v>0.446</v>
       </c>
       <c r="E80">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
       <c r="F80">
         <v>0.828</v>
@@ -7480,19 +7480,19 @@
         <v>0.981</v>
       </c>
       <c r="C81">
-        <v>0.338</v>
+        <v>0.249</v>
       </c>
       <c r="D81">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="E81">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="F81">
-        <v>0.828</v>
+        <v>0.703</v>
       </c>
       <c r="G81">
-        <v>0.338</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -7500,22 +7500,22 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="C82">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="D82">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="E82">
-        <v>0.828</v>
+        <v>0.703</v>
       </c>
       <c r="F82">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="G82">
-        <v>0.338</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -7523,22 +7523,22 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.249</v>
+        <v>0.571</v>
       </c>
       <c r="C83">
-        <v>0.124</v>
+        <v>0.446</v>
       </c>
       <c r="D83">
         <v>0.571</v>
       </c>
       <c r="E83">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="F83">
         <v>0.828</v>
       </c>
       <c r="G83">
-        <v>0.571</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -7546,22 +7546,22 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.249</v>
+        <v>0.338</v>
       </c>
       <c r="C84">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="D84">
+        <v>0.981</v>
+      </c>
+      <c r="E84">
         <v>0.338</v>
       </c>
-      <c r="E84">
-        <v>0.703</v>
-      </c>
       <c r="F84">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="G84">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -7569,22 +7569,22 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="C85">
-        <v>0.571</v>
+        <v>0.249</v>
       </c>
       <c r="D85">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="E85">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
       <c r="F85">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
       <c r="G85">
-        <v>0.08500000000000001</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -7592,22 +7592,22 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.249</v>
+        <v>0.338</v>
       </c>
       <c r="C86">
         <v>0.571</v>
       </c>
       <c r="D86">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="E86">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="F86">
-        <v>0.338</v>
+        <v>0.703</v>
       </c>
       <c r="G86">
-        <v>0.056</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -7615,22 +7615,22 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.925</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="C87">
-        <v>0.446</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D87">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
       <c r="E87">
-        <v>0.828</v>
+        <v>0.446</v>
       </c>
       <c r="F87">
-        <v>0.446</v>
+        <v>0.178</v>
       </c>
       <c r="G87">
-        <v>0.178</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -7638,22 +7638,22 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.571</v>
+        <v>0.828</v>
       </c>
       <c r="C88">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="D88">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="E88">
-        <v>0.998</v>
+        <v>0.571</v>
       </c>
       <c r="F88">
-        <v>0.981</v>
+        <v>0.703</v>
       </c>
       <c r="G88">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -7661,22 +7661,22 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="C89">
-        <v>0.446</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D89">
-        <v>0.981</v>
+        <v>0.925</v>
       </c>
       <c r="E89">
         <v>0.338</v>
       </c>
       <c r="F89">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="G89">
-        <v>0.023</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -7684,22 +7684,22 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="C90">
-        <v>0.446</v>
+        <v>0.338</v>
       </c>
       <c r="D90">
         <v>0.571</v>
       </c>
       <c r="E90">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="F90">
-        <v>0.828</v>
+        <v>0.446</v>
       </c>
       <c r="G90">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -7710,19 +7710,19 @@
         <v>0.703</v>
       </c>
       <c r="C91">
-        <v>0.023</v>
+        <v>0.925</v>
       </c>
       <c r="D91">
         <v>0.571</v>
       </c>
       <c r="E91">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="F91">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
       <c r="G91">
-        <v>0.178</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -7730,22 +7730,22 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="C92">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="D92">
-        <v>0.925</v>
+        <v>0.998</v>
       </c>
       <c r="E92">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="F92">
-        <v>0.124</v>
+        <v>0.178</v>
       </c>
       <c r="G92">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -7753,22 +7753,22 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.056</v>
+        <v>0.571</v>
       </c>
       <c r="C93">
-        <v>0.925</v>
+        <v>0.338</v>
       </c>
       <c r="D93">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="E93">
-        <v>0.828</v>
+        <v>0.446</v>
       </c>
       <c r="F93">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="G93">
-        <v>0.925</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -7779,19 +7779,19 @@
         <v>0.446</v>
       </c>
       <c r="C94">
-        <v>0.249</v>
+        <v>0.571</v>
       </c>
       <c r="D94">
-        <v>0.178</v>
+        <v>0.925</v>
       </c>
       <c r="E94">
-        <v>0.925</v>
+        <v>0.124</v>
       </c>
       <c r="F94">
-        <v>0.056</v>
+        <v>0.571</v>
       </c>
       <c r="G94">
-        <v>0.338</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -7799,22 +7799,22 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.998</v>
+        <v>0.446</v>
       </c>
       <c r="C95">
-        <v>0.981</v>
+        <v>0.124</v>
       </c>
       <c r="D95">
-        <v>0.981</v>
+        <v>1</v>
       </c>
       <c r="E95">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
       <c r="F95">
         <v>0.703</v>
       </c>
       <c r="G95">
-        <v>0.023</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -7822,22 +7822,22 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="C96">
+        <v>0.446</v>
+      </c>
+      <c r="D96">
+        <v>0.925</v>
+      </c>
+      <c r="E96">
         <v>0.249</v>
       </c>
-      <c r="D96">
-        <v>0.036</v>
-      </c>
-      <c r="E96">
-        <v>0.925</v>
-      </c>
       <c r="F96">
-        <v>0.981</v>
+        <v>0.925</v>
       </c>
       <c r="G96">
-        <v>0.828</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -7845,22 +7845,22 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.981</v>
+        <v>0.703</v>
       </c>
       <c r="C97">
-        <v>0.828</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D97">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="E97">
-        <v>0.981</v>
+        <v>0.056</v>
       </c>
       <c r="F97">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="G97">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -7868,22 +7868,22 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.08500000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="C98">
-        <v>0.249</v>
+        <v>0.446</v>
       </c>
       <c r="D98">
-        <v>0.981</v>
+        <v>0.925</v>
       </c>
       <c r="E98">
         <v>0.925</v>
       </c>
       <c r="F98">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="G98">
-        <v>0.014</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -7891,10 +7891,10 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.008</v>
+        <v>0.571</v>
       </c>
       <c r="C99">
-        <v>0.446</v>
+        <v>0.178</v>
       </c>
       <c r="D99">
         <v>0.703</v>
@@ -7903,10 +7903,10 @@
         <v>0.446</v>
       </c>
       <c r="F99">
-        <v>0.124</v>
+        <v>0.703</v>
       </c>
       <c r="G99">
-        <v>0.124</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -7914,22 +7914,22 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.925</v>
+        <v>0.446</v>
       </c>
       <c r="C100">
-        <v>0.08500000000000001</v>
+        <v>0.338</v>
       </c>
       <c r="D100">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="E100">
-        <v>0.178</v>
+        <v>0.703</v>
       </c>
       <c r="F100">
-        <v>0.828</v>
+        <v>0.998</v>
       </c>
       <c r="G100">
-        <v>0.124</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -7937,22 +7937,22 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.338</v>
+        <v>0.178</v>
       </c>
       <c r="C101">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="D101">
-        <v>0.178</v>
+        <v>0.998</v>
       </c>
       <c r="E101">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="F101">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="G101">
-        <v>0.08500000000000001</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -7960,22 +7960,22 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.981</v>
+        <v>0.828</v>
       </c>
       <c r="C102">
-        <v>0.249</v>
+        <v>0.338</v>
       </c>
       <c r="D102">
         <v>0.446</v>
       </c>
       <c r="E102">
-        <v>0.446</v>
+        <v>0.003</v>
       </c>
       <c r="F102">
-        <v>0.338</v>
+        <v>0.703</v>
       </c>
       <c r="G102">
-        <v>0.571</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -7983,10 +7983,10 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.178</v>
+        <v>0.828</v>
       </c>
       <c r="C103">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
       <c r="D103">
         <v>0.703</v>
@@ -7995,10 +7995,10 @@
         <v>0.703</v>
       </c>
       <c r="F103">
-        <v>0.925</v>
+        <v>0.571</v>
       </c>
       <c r="G103">
-        <v>0.036</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -8006,22 +8006,22 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.703</v>
+        <v>0.249</v>
       </c>
       <c r="C104">
-        <v>0.178</v>
+        <v>0.056</v>
       </c>
       <c r="D104">
-        <v>0.925</v>
+        <v>0.998</v>
       </c>
       <c r="E104">
-        <v>0.249</v>
+        <v>0.925</v>
       </c>
       <c r="F104">
-        <v>0.571</v>
+        <v>0.338</v>
       </c>
       <c r="G104">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -8029,22 +8029,22 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.036</v>
+        <v>0.178</v>
       </c>
       <c r="C105">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="D105">
-        <v>0.925</v>
+        <v>0.571</v>
       </c>
       <c r="E105">
+        <v>0.998</v>
+      </c>
+      <c r="F105">
         <v>0.249</v>
       </c>
-      <c r="F105">
-        <v>0.925</v>
-      </c>
       <c r="G105">
-        <v>0.571</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -8052,22 +8052,22 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="C106">
-        <v>0.446</v>
+        <v>0.249</v>
       </c>
       <c r="D106">
-        <v>0.571</v>
+        <v>0.998</v>
       </c>
       <c r="E106">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
       <c r="F106">
-        <v>0.338</v>
+        <v>0.981</v>
       </c>
       <c r="G106">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -8075,22 +8075,22 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.178</v>
+        <v>0.446</v>
       </c>
       <c r="C107">
         <v>0.571</v>
       </c>
       <c r="D107">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="E107">
         <v>0.446</v>
       </c>
       <c r="F107">
-        <v>0.925</v>
+        <v>0.571</v>
       </c>
       <c r="G107">
-        <v>0.925</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -8098,22 +8098,22 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.998</v>
+        <v>0.925</v>
       </c>
       <c r="C108">
-        <v>0.571</v>
+        <v>0.249</v>
       </c>
       <c r="D108">
-        <v>0.925</v>
+        <v>0.446</v>
       </c>
       <c r="E108">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="F108">
         <v>0.703</v>
       </c>
       <c r="G108">
-        <v>0.056</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -8121,19 +8121,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.446</v>
+        <v>0.178</v>
       </c>
       <c r="C109">
-        <v>0.828</v>
+        <v>0.124</v>
       </c>
       <c r="D109">
-        <v>0.178</v>
+        <v>0.925</v>
       </c>
       <c r="E109">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="F109">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
       <c r="G109">
         <v>0.703</v>
@@ -8144,10 +8144,10 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.703</v>
+        <v>0.338</v>
       </c>
       <c r="C110">
-        <v>0.925</v>
+        <v>0.178</v>
       </c>
       <c r="D110">
         <v>0.571</v>
@@ -8156,10 +8156,10 @@
         <v>0.925</v>
       </c>
       <c r="F110">
-        <v>0.178</v>
+        <v>0.925</v>
       </c>
       <c r="G110">
-        <v>0.056</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -8167,22 +8167,22 @@
         <v>109</v>
       </c>
       <c r="B111">
+        <v>0.925</v>
+      </c>
+      <c r="C111">
         <v>0.178</v>
       </c>
-      <c r="C111">
-        <v>0.446</v>
-      </c>
       <c r="D111">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="E111">
         <v>0.703</v>
       </c>
       <c r="F111">
-        <v>0.249</v>
+        <v>0.703</v>
       </c>
       <c r="G111">
-        <v>0.178</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -8190,22 +8190,22 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
       <c r="C112">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="D112">
-        <v>0.925</v>
+        <v>0.249</v>
       </c>
       <c r="E112">
-        <v>0.703</v>
+        <v>0.249</v>
       </c>
       <c r="F112">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="G112">
-        <v>0.925</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -8213,22 +8213,22 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="C113">
-        <v>0.571</v>
+        <v>0.249</v>
       </c>
       <c r="D113">
         <v>0.446</v>
       </c>
       <c r="E113">
-        <v>0.446</v>
+        <v>0.249</v>
       </c>
       <c r="F113">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="G113">
-        <v>0.08500000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -8236,19 +8236,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="C114">
-        <v>0.249</v>
+        <v>0.925</v>
       </c>
       <c r="D114">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="E114">
-        <v>0.981</v>
+        <v>0.571</v>
       </c>
       <c r="F114">
-        <v>0.981</v>
+        <v>0.925</v>
       </c>
       <c r="G114">
         <v>0.703</v>
@@ -8259,22 +8259,22 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="C115">
-        <v>0.925</v>
+        <v>0.249</v>
       </c>
       <c r="D115">
-        <v>0.828</v>
+        <v>0.703</v>
       </c>
       <c r="E115">
-        <v>0.338</v>
+        <v>0.008</v>
       </c>
       <c r="F115">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="G115">
-        <v>0.178</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -8282,7 +8282,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="C116">
         <v>0.703</v>
@@ -8291,13 +8291,13 @@
         <v>0.828</v>
       </c>
       <c r="E116">
-        <v>0.178</v>
+        <v>0.703</v>
       </c>
       <c r="F116">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="G116">
-        <v>0.338</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -8305,22 +8305,22 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="C117">
-        <v>0.446</v>
+        <v>0.338</v>
       </c>
       <c r="D117">
+        <v>0.981</v>
+      </c>
+      <c r="E117">
         <v>0.338</v>
       </c>
-      <c r="E117">
-        <v>0.571</v>
-      </c>
       <c r="F117">
-        <v>0.056</v>
+        <v>0.998</v>
       </c>
       <c r="G117">
-        <v>0.998</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -8328,22 +8328,22 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="C118">
-        <v>0.338</v>
+        <v>0.178</v>
       </c>
       <c r="D118">
+        <v>0.446</v>
+      </c>
+      <c r="E118">
         <v>0.178</v>
       </c>
-      <c r="E118">
-        <v>0.338</v>
-      </c>
       <c r="F118">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="G118">
-        <v>0.338</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -8351,22 +8351,22 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.178</v>
+        <v>0.338</v>
       </c>
       <c r="C119">
-        <v>0.249</v>
+        <v>0.925</v>
       </c>
       <c r="D119">
-        <v>0.08500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="E119">
-        <v>0.249</v>
+        <v>0.925</v>
       </c>
       <c r="F119">
-        <v>0.828</v>
+        <v>0.446</v>
       </c>
       <c r="G119">
-        <v>0.998</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -8374,22 +8374,22 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="C120">
-        <v>0.338</v>
+        <v>0.124</v>
       </c>
       <c r="D120">
         <v>0.338</v>
       </c>
       <c r="E120">
-        <v>0.178</v>
+        <v>0.703</v>
       </c>
       <c r="F120">
-        <v>0.446</v>
+        <v>0.981</v>
       </c>
       <c r="G120">
-        <v>0.981</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -8397,22 +8397,22 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="C121">
-        <v>0.703</v>
+        <v>0.338</v>
       </c>
       <c r="D121">
         <v>0.828</v>
       </c>
       <c r="E121">
-        <v>0.571</v>
+        <v>0.249</v>
       </c>
       <c r="F121">
-        <v>0.571</v>
+        <v>0.981</v>
       </c>
       <c r="G121">
-        <v>0.014</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -8420,22 +8420,22 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.338</v>
+        <v>0.703</v>
       </c>
       <c r="C122">
-        <v>0.446</v>
+        <v>0.056</v>
       </c>
       <c r="D122">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="E122">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="F122">
-        <v>0.124</v>
+        <v>0.178</v>
       </c>
       <c r="G122">
-        <v>0.124</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -8443,10 +8443,10 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
       <c r="C123">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="D123">
         <v>0.703</v>
@@ -8455,10 +8455,10 @@
         <v>0.703</v>
       </c>
       <c r="F123">
-        <v>0.828</v>
+        <v>0.178</v>
       </c>
       <c r="G123">
-        <v>0.249</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -8466,22 +8466,22 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.249</v>
+        <v>0.703</v>
       </c>
       <c r="C124">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="D124">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
       <c r="E124">
-        <v>0.981</v>
+        <v>0.178</v>
       </c>
       <c r="F124">
-        <v>0.703</v>
+        <v>0.178</v>
       </c>
       <c r="G124">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -8489,22 +8489,22 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="C125">
-        <v>0.446</v>
+        <v>0.178</v>
       </c>
       <c r="D125">
-        <v>0.124</v>
+        <v>0.925</v>
       </c>
       <c r="E125">
-        <v>0.178</v>
+        <v>0.703</v>
       </c>
       <c r="F125">
-        <v>0.056</v>
+        <v>0.925</v>
       </c>
       <c r="G125">
-        <v>0.338</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -8515,19 +8515,19 @@
         <v>0.703</v>
       </c>
       <c r="C126">
-        <v>0.08500000000000001</v>
+        <v>0.338</v>
       </c>
       <c r="D126">
-        <v>0.828</v>
+        <v>0.703</v>
       </c>
       <c r="E126">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="F126">
-        <v>0.124</v>
+        <v>0.703</v>
       </c>
       <c r="G126">
-        <v>0.014</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -8535,22 +8535,22 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.249</v>
+        <v>0.571</v>
       </c>
       <c r="C127">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="D127">
+        <v>0.338</v>
+      </c>
+      <c r="E127">
         <v>0.178</v>
       </c>
-      <c r="E127">
-        <v>0.981</v>
-      </c>
       <c r="F127">
-        <v>0.981</v>
+        <v>0.703</v>
       </c>
       <c r="G127">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -8558,22 +8558,22 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="C128">
-        <v>0.249</v>
+        <v>0.828</v>
       </c>
       <c r="D128">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="E128">
-        <v>0.981</v>
+        <v>0.178</v>
       </c>
       <c r="F128">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="G128">
-        <v>0.178</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -8581,22 +8581,22 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.08500000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="C129">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
       <c r="D129">
-        <v>0.08500000000000001</v>
+        <v>0.571</v>
       </c>
       <c r="E129">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="F129">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="G129">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -8604,22 +8604,22 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
       <c r="C130">
-        <v>0.571</v>
+        <v>0.014</v>
       </c>
       <c r="D130">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="E130">
         <v>0.703</v>
       </c>
       <c r="F130">
-        <v>0.571</v>
+        <v>0.981</v>
       </c>
       <c r="G130">
-        <v>0.178</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -8627,22 +8627,22 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.703</v>
+        <v>0.338</v>
       </c>
       <c r="C131">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="D131">
-        <v>0.124</v>
+        <v>0.446</v>
       </c>
       <c r="E131">
-        <v>0.571</v>
+        <v>0.828</v>
       </c>
       <c r="F131">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="G131">
-        <v>0.981</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -8650,22 +8650,22 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.124</v>
+        <v>0.925</v>
       </c>
       <c r="C132">
-        <v>0.003</v>
+        <v>0.571</v>
       </c>
       <c r="D132">
-        <v>0.446</v>
+        <v>0.981</v>
       </c>
       <c r="E132">
-        <v>0.571</v>
+        <v>0.249</v>
       </c>
       <c r="F132">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="G132">
-        <v>0.249</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -8676,19 +8676,19 @@
         <v>0.703</v>
       </c>
       <c r="C133">
-        <v>0.08500000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="D133">
-        <v>0.249</v>
+        <v>0.338</v>
       </c>
       <c r="E133">
         <v>0.446</v>
       </c>
       <c r="F133">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="G133">
-        <v>0.828</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -8696,22 +8696,22 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="C134">
-        <v>0.338</v>
+        <v>0.703</v>
       </c>
       <c r="D134">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="E134">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="F134">
-        <v>0.998</v>
+        <v>0.571</v>
       </c>
       <c r="G134">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -8719,22 +8719,22 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.008</v>
+        <v>0.249</v>
       </c>
       <c r="C135">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
       <c r="D135">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
       <c r="E135">
-        <v>0.703</v>
+        <v>0.124</v>
       </c>
       <c r="F135">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="G135">
-        <v>0.178</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -8742,22 +8742,22 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.023</v>
+        <v>0.446</v>
       </c>
       <c r="C136">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="D136">
-        <v>0.703</v>
+        <v>0.178</v>
       </c>
       <c r="E136">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
       <c r="F136">
         <v>0.571</v>
       </c>
       <c r="G136">
-        <v>0.249</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -8765,22 +8765,22 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="C137">
-        <v>0.338</v>
+        <v>0.828</v>
       </c>
       <c r="D137">
         <v>0.446</v>
       </c>
       <c r="E137">
-        <v>0.056</v>
+        <v>0.446</v>
       </c>
       <c r="F137">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="G137">
-        <v>0.446</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -8791,19 +8791,19 @@
         <v>0.828</v>
       </c>
       <c r="C138">
-        <v>0.338</v>
+        <v>0.249</v>
       </c>
       <c r="D138">
-        <v>0.571</v>
+        <v>0.998</v>
       </c>
       <c r="E138">
-        <v>0.828</v>
+        <v>0.446</v>
       </c>
       <c r="F138">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="G138">
-        <v>0.828</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -8811,22 +8811,22 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="C139">
-        <v>0.124</v>
+        <v>0.446</v>
       </c>
       <c r="D139">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="E139">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="F139">
-        <v>0.338</v>
+        <v>0.981</v>
       </c>
       <c r="G139">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -8834,22 +8834,22 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="C140">
-        <v>0.056</v>
+        <v>0.249</v>
       </c>
       <c r="D140">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="E140">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
       <c r="F140">
-        <v>0.828</v>
+        <v>0.178</v>
       </c>
       <c r="G140">
-        <v>0.249</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -8857,22 +8857,22 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.981</v>
+        <v>0.338</v>
       </c>
       <c r="C141">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="D141">
-        <v>0.828</v>
+        <v>0.703</v>
       </c>
       <c r="E141">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="F141">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="G141">
-        <v>0.008</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -8880,22 +8880,22 @@
         <v>140</v>
       </c>
       <c r="B142">
+        <v>0.828</v>
+      </c>
+      <c r="C142">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="D142">
         <v>0.249</v>
       </c>
-      <c r="C142">
-        <v>0.571</v>
-      </c>
-      <c r="D142">
-        <v>0.703</v>
-      </c>
       <c r="E142">
-        <v>0.998</v>
+        <v>0.571</v>
       </c>
       <c r="F142">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="G142">
-        <v>0.08500000000000001</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -8906,19 +8906,19 @@
         <v>0.249</v>
       </c>
       <c r="C143">
-        <v>0.446</v>
+        <v>0.338</v>
       </c>
       <c r="D143">
-        <v>0.338</v>
+        <v>0.703</v>
       </c>
       <c r="E143">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="F143">
-        <v>0.571</v>
+        <v>0.981</v>
       </c>
       <c r="G143">
-        <v>0.446</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -8926,22 +8926,22 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
       <c r="C144">
-        <v>0.08500000000000001</v>
+        <v>0.981</v>
       </c>
       <c r="D144">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="E144">
-        <v>0.998</v>
+        <v>0.056</v>
       </c>
       <c r="F144">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="G144">
-        <v>0.178</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -8949,22 +8949,22 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.249</v>
+        <v>0.571</v>
       </c>
       <c r="C145">
         <v>0.338</v>
       </c>
       <c r="D145">
-        <v>0.703</v>
+        <v>0.338</v>
       </c>
       <c r="E145">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="F145">
-        <v>0.998</v>
+        <v>0.571</v>
       </c>
       <c r="G145">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -8972,22 +8972,22 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="C146">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="D146">
-        <v>0.178</v>
+        <v>0.703</v>
       </c>
       <c r="E146">
-        <v>0.828</v>
+        <v>0.703</v>
       </c>
       <c r="F146">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
       <c r="G146">
-        <v>0.08500000000000001</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -8995,22 +8995,22 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="C147">
-        <v>0.703</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D147">
-        <v>0.036</v>
+        <v>0.446</v>
       </c>
       <c r="E147">
-        <v>0.571</v>
+        <v>0.981</v>
       </c>
       <c r="F147">
-        <v>0.446</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="G147">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -9018,22 +9018,22 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="C148">
-        <v>0.338</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D148">
+        <v>0.828</v>
+      </c>
+      <c r="E148">
         <v>0.124</v>
       </c>
-      <c r="E148">
-        <v>0.925</v>
-      </c>
       <c r="F148">
-        <v>0.981</v>
+        <v>0.828</v>
       </c>
       <c r="G148">
-        <v>0.249</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -9041,22 +9041,22 @@
         <v>147</v>
       </c>
       <c r="B149">
+        <v>0.925</v>
+      </c>
+      <c r="C149">
+        <v>0.571</v>
+      </c>
+      <c r="D149">
+        <v>0.981</v>
+      </c>
+      <c r="E149">
         <v>0.338</v>
       </c>
-      <c r="C149">
-        <v>0.703</v>
-      </c>
-      <c r="D149">
-        <v>0.703</v>
-      </c>
-      <c r="E149">
-        <v>0.925</v>
-      </c>
       <c r="F149">
         <v>0.925</v>
       </c>
       <c r="G149">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -9064,22 +9064,22 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.925</v>
+        <v>0.981</v>
       </c>
       <c r="C150">
-        <v>0.08500000000000001</v>
+        <v>0.178</v>
       </c>
       <c r="D150">
-        <v>0.124</v>
+        <v>0.828</v>
       </c>
       <c r="E150">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="F150">
-        <v>0.178</v>
+        <v>0.925</v>
       </c>
       <c r="G150">
-        <v>0.056</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -9087,22 +9087,22 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.925</v>
+        <v>0.338</v>
       </c>
       <c r="C151">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="D151">
-        <v>0.446</v>
+        <v>0.998</v>
       </c>
       <c r="E151">
         <v>0.703</v>
       </c>
       <c r="F151">
-        <v>0.571</v>
+        <v>0.981</v>
       </c>
       <c r="G151">
-        <v>0.178</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -9110,22 +9110,22 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
       <c r="C152">
-        <v>0.446</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D152">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="E152">
-        <v>0.925</v>
+        <v>0.178</v>
       </c>
       <c r="F152">
-        <v>0.571</v>
+        <v>0.178</v>
       </c>
       <c r="G152">
-        <v>0.249</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -9133,22 +9133,22 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.828</v>
+        <v>0.249</v>
       </c>
       <c r="C153">
-        <v>0.703</v>
+        <v>0.178</v>
       </c>
       <c r="D153">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
       <c r="E153">
         <v>0.703</v>
       </c>
       <c r="F153">
-        <v>0.249</v>
+        <v>0.828</v>
       </c>
       <c r="G153">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -9156,22 +9156,22 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="C154">
-        <v>0.249</v>
+        <v>0.925</v>
       </c>
       <c r="D154">
-        <v>0.249</v>
+        <v>0.571</v>
       </c>
       <c r="E154">
-        <v>0.828</v>
+        <v>0.124</v>
       </c>
       <c r="F154">
-        <v>0.249</v>
+        <v>0.981</v>
       </c>
       <c r="G154">
-        <v>0.124</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -9179,22 +9179,22 @@
         <v>153</v>
       </c>
       <c r="B155">
+        <v>0.828</v>
+      </c>
+      <c r="C155">
+        <v>0.446</v>
+      </c>
+      <c r="D155">
+        <v>0.925</v>
+      </c>
+      <c r="E155">
+        <v>0.703</v>
+      </c>
+      <c r="F155">
+        <v>0.571</v>
+      </c>
+      <c r="G155">
         <v>0.338</v>
-      </c>
-      <c r="C155">
-        <v>0.571</v>
-      </c>
-      <c r="D155">
-        <v>0.703</v>
-      </c>
-      <c r="E155">
-        <v>0.338</v>
-      </c>
-      <c r="F155">
-        <v>0.828</v>
-      </c>
-      <c r="G155">
-        <v>0.703</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -9202,22 +9202,22 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="C156">
         <v>0.703</v>
       </c>
       <c r="D156">
-        <v>0.828</v>
+        <v>0.703</v>
       </c>
       <c r="E156">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
       <c r="F156">
-        <v>0.981</v>
+        <v>0.571</v>
       </c>
       <c r="G156">
-        <v>0.124</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -9225,22 +9225,22 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.338</v>
+        <v>0.828</v>
       </c>
       <c r="C157">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="D157">
         <v>0.828</v>
       </c>
       <c r="E157">
-        <v>0.925</v>
+        <v>0.036</v>
       </c>
       <c r="F157">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="G157">
-        <v>0.036</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -9248,22 +9248,22 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.178</v>
+        <v>0.446</v>
       </c>
       <c r="C158">
-        <v>0.981</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D158">
         <v>0.981</v>
       </c>
       <c r="E158">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="F158">
-        <v>0.124</v>
+        <v>0.925</v>
       </c>
       <c r="G158">
-        <v>0.178</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -9271,22 +9271,22 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="C159">
-        <v>0.925</v>
+        <v>0.178</v>
       </c>
       <c r="D159">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="E159">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="F159">
-        <v>0.124</v>
+        <v>0.828</v>
       </c>
       <c r="G159">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -9294,22 +9294,22 @@
         <v>158</v>
       </c>
       <c r="B160">
+        <v>0.925</v>
+      </c>
+      <c r="C160">
+        <v>0.446</v>
+      </c>
+      <c r="D160">
         <v>0.981</v>
       </c>
-      <c r="C160">
-        <v>0.249</v>
-      </c>
-      <c r="D160">
-        <v>0.338</v>
-      </c>
       <c r="E160">
-        <v>0.828</v>
+        <v>0.178</v>
       </c>
       <c r="F160">
+        <v>0.446</v>
+      </c>
+      <c r="G160">
         <v>0.981</v>
-      </c>
-      <c r="G160">
-        <v>0.249</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -9317,22 +9317,22 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.08500000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="C161">
-        <v>0.056</v>
+        <v>0.571</v>
       </c>
       <c r="D161">
-        <v>0.178</v>
+        <v>0.446</v>
       </c>
       <c r="E161">
         <v>0.571</v>
       </c>
       <c r="F161">
-        <v>0.056</v>
+        <v>0.925</v>
       </c>
       <c r="G161">
-        <v>0.249</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -9340,22 +9340,22 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="C162">
-        <v>0.08500000000000001</v>
+        <v>0.338</v>
       </c>
       <c r="D162">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
       <c r="E162">
-        <v>0.981</v>
+        <v>0.178</v>
       </c>
       <c r="F162">
-        <v>0.703</v>
+        <v>0.249</v>
       </c>
       <c r="G162">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -9363,19 +9363,19 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.981</v>
+        <v>0.828</v>
       </c>
       <c r="C163">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
       <c r="D163">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="E163">
-        <v>0.571</v>
+        <v>0.056</v>
       </c>
       <c r="F163">
-        <v>0.056</v>
+        <v>0.925</v>
       </c>
       <c r="G163">
         <v>0.338</v>
@@ -9386,22 +9386,22 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="C164">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="D164">
         <v>0.981</v>
       </c>
       <c r="E164">
-        <v>0.124</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F164">
-        <v>0.925</v>
+        <v>0.178</v>
       </c>
       <c r="G164">
-        <v>0.925</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -9409,22 +9409,22 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="C165">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="D165">
-        <v>0.925</v>
+        <v>0.998</v>
       </c>
       <c r="E165">
         <v>0.571</v>
       </c>
       <c r="F165">
-        <v>0.981</v>
+        <v>0.446</v>
       </c>
       <c r="G165">
-        <v>0.981</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -9432,22 +9432,22 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.571</v>
+        <v>0.249</v>
       </c>
       <c r="C166">
         <v>0.178</v>
       </c>
       <c r="D166">
-        <v>0.925</v>
+        <v>0.703</v>
       </c>
       <c r="E166">
-        <v>0.703</v>
+        <v>0.036</v>
       </c>
       <c r="F166">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="G166">
-        <v>0.249</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -9455,22 +9455,22 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="C167">
-        <v>0.571</v>
+        <v>0.828</v>
       </c>
       <c r="D167">
-        <v>0.703</v>
+        <v>0.998</v>
       </c>
       <c r="E167">
-        <v>0.981</v>
+        <v>0.571</v>
       </c>
       <c r="F167">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="G167">
-        <v>0.178</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -9478,22 +9478,22 @@
         <v>166</v>
       </c>
       <c r="B168">
+        <v>0.446</v>
+      </c>
+      <c r="C168">
+        <v>0.703</v>
+      </c>
+      <c r="D168">
         <v>0.981</v>
       </c>
-      <c r="C168">
-        <v>0.571</v>
-      </c>
-      <c r="D168">
-        <v>0.703</v>
-      </c>
       <c r="E168">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
       <c r="F168">
-        <v>0.981</v>
+        <v>0.925</v>
       </c>
       <c r="G168">
-        <v>0.571</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -9501,22 +9501,22 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.178</v>
+        <v>0.249</v>
       </c>
       <c r="C169">
-        <v>0.056</v>
+        <v>0.828</v>
       </c>
       <c r="D169">
         <v>0.703</v>
       </c>
       <c r="E169">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="F169">
-        <v>0.925</v>
+        <v>0.338</v>
       </c>
       <c r="G169">
-        <v>0.981</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -9524,22 +9524,22 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.249</v>
+        <v>0.703</v>
       </c>
       <c r="C170">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="D170">
-        <v>0.703</v>
+        <v>0.998</v>
       </c>
       <c r="E170">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="F170">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
       <c r="G170">
-        <v>0.178</v>
+        <v>0.124</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -9553,16 +9553,16 @@
         <v>0.571</v>
       </c>
       <c r="D171">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="E171">
-        <v>0.124</v>
+        <v>0.703</v>
       </c>
       <c r="F171">
-        <v>0.981</v>
+        <v>0.828</v>
       </c>
       <c r="G171">
-        <v>0.056</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -9570,22 +9570,22 @@
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="C172">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="D172">
-        <v>0.981</v>
+        <v>0.338</v>
       </c>
       <c r="E172">
-        <v>0.981</v>
+        <v>0.571</v>
       </c>
       <c r="F172">
         <v>0.828</v>
       </c>
       <c r="G172">
-        <v>0.249</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -9593,22 +9593,22 @@
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.571</v>
+        <v>0.828</v>
       </c>
       <c r="C173">
-        <v>0.178</v>
+        <v>0.446</v>
       </c>
       <c r="D173">
-        <v>0.571</v>
+        <v>0.338</v>
       </c>
       <c r="E173">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="F173">
-        <v>0.338</v>
+        <v>0.828</v>
       </c>
       <c r="G173">
-        <v>0.249</v>
+        <v>0.703</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -9616,19 +9616,19 @@
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.998</v>
+        <v>0.828</v>
       </c>
       <c r="C174">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
       <c r="D174">
-        <v>0.703</v>
+        <v>0.338</v>
       </c>
       <c r="E174">
-        <v>0.703</v>
+        <v>0.178</v>
       </c>
       <c r="F174">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="G174">
         <v>0.703</v>
@@ -9639,22 +9639,22 @@
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.925</v>
+        <v>0.981</v>
       </c>
       <c r="C175">
-        <v>0.571</v>
+        <v>0.828</v>
       </c>
       <c r="D175">
         <v>0.446</v>
       </c>
       <c r="E175">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="F175">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
       <c r="G175">
-        <v>0.056</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -9662,22 +9662,22 @@
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.178</v>
+        <v>0.925</v>
       </c>
       <c r="C176">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="D176">
-        <v>0.249</v>
+        <v>0.925</v>
       </c>
       <c r="E176">
         <v>0.703</v>
       </c>
       <c r="F176">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="G176">
-        <v>0.08500000000000001</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -9685,22 +9685,22 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
       <c r="C177">
-        <v>0.338</v>
+        <v>0.178</v>
       </c>
       <c r="D177">
-        <v>0.08500000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="E177">
-        <v>0.828</v>
+        <v>0.249</v>
       </c>
       <c r="F177">
-        <v>0.338</v>
+        <v>0.828</v>
       </c>
       <c r="G177">
-        <v>0.446</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -9708,22 +9708,22 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.925</v>
+        <v>0.981</v>
       </c>
       <c r="C178">
-        <v>0.703</v>
+        <v>0.249</v>
       </c>
       <c r="D178">
-        <v>0.338</v>
+        <v>0.981</v>
       </c>
       <c r="E178">
-        <v>0.828</v>
+        <v>0.571</v>
       </c>
       <c r="F178">
-        <v>0.828</v>
+        <v>0.178</v>
       </c>
       <c r="G178">
-        <v>0.056</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -9731,22 +9731,22 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.249</v>
+        <v>0.446</v>
       </c>
       <c r="C179">
-        <v>0.338</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D179">
-        <v>0.249</v>
+        <v>0.571</v>
       </c>
       <c r="E179">
-        <v>0.981</v>
+        <v>0.036</v>
       </c>
       <c r="F179">
-        <v>0.703</v>
+        <v>0.925</v>
       </c>
       <c r="G179">
-        <v>0.703</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -9754,22 +9754,22 @@
         <v>178</v>
       </c>
       <c r="B180">
+        <v>0.703</v>
+      </c>
+      <c r="C180">
+        <v>0.925</v>
+      </c>
+      <c r="D180">
         <v>0.998</v>
       </c>
-      <c r="C180">
-        <v>0.249</v>
-      </c>
-      <c r="D180">
-        <v>0.981</v>
-      </c>
       <c r="E180">
-        <v>0.703</v>
+        <v>0.056</v>
       </c>
       <c r="F180">
         <v>0.571</v>
       </c>
       <c r="G180">
-        <v>0.056</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -9777,22 +9777,22 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
       <c r="C181">
-        <v>0.446</v>
+        <v>0.056</v>
       </c>
       <c r="D181">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="E181">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="F181">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="G181">
-        <v>0.703</v>
+        <v>0.998</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -9800,22 +9800,22 @@
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.249</v>
+        <v>0.925</v>
       </c>
       <c r="C182">
-        <v>0.446</v>
+        <v>0.338</v>
       </c>
       <c r="D182">
         <v>0.446</v>
       </c>
       <c r="E182">
-        <v>0.571</v>
+        <v>0.998</v>
       </c>
       <c r="F182">
         <v>0.925</v>
       </c>
       <c r="G182">
-        <v>0.001</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -9826,19 +9826,19 @@
         <v>0.925</v>
       </c>
       <c r="C183">
+        <v>0.249</v>
+      </c>
+      <c r="D183">
+        <v>0.571</v>
+      </c>
+      <c r="E183">
+        <v>0.056</v>
+      </c>
+      <c r="F183">
         <v>0.338</v>
       </c>
-      <c r="D183">
-        <v>0.338</v>
-      </c>
-      <c r="E183">
-        <v>0.828</v>
-      </c>
-      <c r="F183">
-        <v>0.703</v>
-      </c>
       <c r="G183">
-        <v>0.023</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -9846,22 +9846,22 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="C184">
+        <v>0.571</v>
+      </c>
+      <c r="D184">
+        <v>0.124</v>
+      </c>
+      <c r="E184">
         <v>0.338</v>
       </c>
-      <c r="D184">
-        <v>0.571</v>
-      </c>
-      <c r="E184">
-        <v>0.124</v>
-      </c>
       <c r="F184">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="G184">
-        <v>0.446</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -9869,22 +9869,22 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="C185">
-        <v>0.014</v>
+        <v>0.828</v>
       </c>
       <c r="D185">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="E185">
-        <v>0.925</v>
+        <v>0.571</v>
       </c>
       <c r="F185">
         <v>0.703</v>
       </c>
       <c r="G185">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -9892,22 +9892,22 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="C186">
-        <v>0.571</v>
+        <v>0.249</v>
       </c>
       <c r="D186">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="E186">
         <v>0.703</v>
       </c>
       <c r="F186">
-        <v>0.828</v>
+        <v>0.338</v>
       </c>
       <c r="G186">
-        <v>0.249</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -9915,22 +9915,22 @@
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.981</v>
+        <v>0.828</v>
       </c>
       <c r="C187">
+        <v>0.703</v>
+      </c>
+      <c r="D187">
+        <v>0.925</v>
+      </c>
+      <c r="E187">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F187">
+        <v>0.703</v>
+      </c>
+      <c r="G187">
         <v>0.338</v>
-      </c>
-      <c r="D187">
-        <v>0.828</v>
-      </c>
-      <c r="E187">
-        <v>0.571</v>
-      </c>
-      <c r="F187">
-        <v>0.703</v>
-      </c>
-      <c r="G187">
-        <v>0.178</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -9938,22 +9938,22 @@
         <v>186</v>
       </c>
       <c r="B188">
+        <v>0.446</v>
+      </c>
+      <c r="C188">
+        <v>0.925</v>
+      </c>
+      <c r="D188">
+        <v>0.925</v>
+      </c>
+      <c r="E188">
+        <v>0.178</v>
+      </c>
+      <c r="F188">
         <v>0.249</v>
       </c>
-      <c r="C188">
-        <v>0.249</v>
-      </c>
-      <c r="D188">
-        <v>0.178</v>
-      </c>
-      <c r="E188">
-        <v>0.925</v>
-      </c>
-      <c r="F188">
-        <v>0.828</v>
-      </c>
       <c r="G188">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -9961,22 +9961,22 @@
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.925</v>
+        <v>0.178</v>
       </c>
       <c r="C189">
-        <v>0.249</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="D189">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="E189">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="F189">
         <v>0.124</v>
       </c>
       <c r="G189">
-        <v>0.056</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -9984,22 +9984,22 @@
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.925</v>
+        <v>0.178</v>
       </c>
       <c r="C190">
-        <v>0.338</v>
+        <v>0.571</v>
       </c>
       <c r="D190">
-        <v>0.703</v>
+        <v>0.998</v>
       </c>
       <c r="E190">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
       <c r="F190">
-        <v>0.981</v>
+        <v>0.828</v>
       </c>
       <c r="G190">
-        <v>0.124</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -10007,22 +10007,22 @@
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="C191">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
       <c r="D191">
-        <v>0.925</v>
+        <v>0.571</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0.703</v>
       </c>
       <c r="F191">
-        <v>0.178</v>
+        <v>0.446</v>
       </c>
       <c r="G191">
-        <v>0.008</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -10030,22 +10030,22 @@
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="C192">
-        <v>0.338</v>
+        <v>0.036</v>
       </c>
       <c r="D192">
-        <v>0.925</v>
+        <v>0.036</v>
       </c>
       <c r="E192">
-        <v>0.571</v>
+        <v>0.925</v>
       </c>
       <c r="F192">
-        <v>0.338</v>
+        <v>0.446</v>
       </c>
       <c r="G192">
-        <v>0.178</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -10056,19 +10056,19 @@
         <v>0.703</v>
       </c>
       <c r="C193">
-        <v>0.571</v>
+        <v>0.056</v>
       </c>
       <c r="D193">
         <v>0.828</v>
       </c>
       <c r="E193">
-        <v>0.703</v>
+        <v>0.249</v>
       </c>
       <c r="F193">
-        <v>0.571</v>
+        <v>0.703</v>
       </c>
       <c r="G193">
-        <v>0.446</v>
+        <v>0.571</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -10076,22 +10076,22 @@
         <v>192</v>
       </c>
       <c r="B194">
-        <v>1</v>
+        <v>0.981</v>
       </c>
       <c r="C194">
-        <v>0.446</v>
+        <v>0.124</v>
       </c>
       <c r="D194">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="E194">
-        <v>0.981</v>
+        <v>0.249</v>
       </c>
       <c r="F194">
-        <v>0.446</v>
+        <v>0.703</v>
       </c>
       <c r="G194">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -10099,22 +10099,22 @@
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.08500000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="C195">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="D195">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="E195">
-        <v>0.828</v>
+        <v>0.249</v>
       </c>
       <c r="F195">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
       <c r="G195">
-        <v>0.178</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -10122,22 +10122,22 @@
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.925</v>
+        <v>0.249</v>
       </c>
       <c r="C196">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="D196">
-        <v>0.338</v>
+        <v>0.925</v>
       </c>
       <c r="E196">
         <v>0.446</v>
       </c>
       <c r="F196">
-        <v>0.981</v>
+        <v>0.828</v>
       </c>
       <c r="G196">
-        <v>0.338</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -10145,22 +10145,22 @@
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.703</v>
+        <v>0.338</v>
       </c>
       <c r="C197">
-        <v>0.828</v>
+        <v>0.446</v>
       </c>
       <c r="D197">
-        <v>0.703</v>
+        <v>0.446</v>
       </c>
       <c r="E197">
-        <v>0.571</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="F197">
-        <v>0.703</v>
+        <v>0.998</v>
       </c>
       <c r="G197">
-        <v>0.124</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -10171,19 +10171,19 @@
         <v>0.828</v>
       </c>
       <c r="C198">
-        <v>0.338</v>
+        <v>0.703</v>
       </c>
       <c r="D198">
-        <v>0.124</v>
+        <v>0.981</v>
       </c>
       <c r="E198">
-        <v>0.08500000000000001</v>
+        <v>0.703</v>
       </c>
       <c r="F198">
         <v>0.828</v>
       </c>
       <c r="G198">
-        <v>0.124</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -10191,22 +10191,22 @@
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
       <c r="C199">
-        <v>0.249</v>
+        <v>0.446</v>
       </c>
       <c r="D199">
-        <v>0.703</v>
+        <v>0.178</v>
       </c>
       <c r="E199">
-        <v>0.703</v>
+        <v>0.981</v>
       </c>
       <c r="F199">
-        <v>0.981</v>
+        <v>0.446</v>
       </c>
       <c r="G199">
-        <v>0.249</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -10214,22 +10214,22 @@
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.828</v>
+        <v>0.925</v>
       </c>
       <c r="C200">
-        <v>0.124</v>
+        <v>0.703</v>
       </c>
       <c r="D200">
         <v>0.571</v>
       </c>
       <c r="E200">
-        <v>0.925</v>
+        <v>0.828</v>
       </c>
       <c r="F200">
-        <v>0.828</v>
+        <v>0.981</v>
       </c>
       <c r="G200">
-        <v>0.446</v>
+        <v>0.828</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -10237,22 +10237,22 @@
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.571</v>
+        <v>0.446</v>
       </c>
       <c r="C201">
-        <v>0.08500000000000001</v>
+        <v>0.178</v>
       </c>
       <c r="D201">
-        <v>0.446</v>
+        <v>0.338</v>
       </c>
       <c r="E201">
-        <v>0.703</v>
+        <v>0.571</v>
       </c>
       <c r="F201">
-        <v>0.446</v>
+        <v>0.925</v>
       </c>
       <c r="G201">
-        <v>0.249</v>
+        <v>0.828</v>
       </c>
     </row>
   </sheetData>
